--- a/medicine/Pharmacie/Olanzapine/Olanzapine.xlsx
+++ b/medicine/Pharmacie/Olanzapine/Olanzapine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'olanzapine est un médicament utilisé dans le traitement de certaines formes de schizophrénies et des troubles bipolaires.
@@ -514,11 +526,13 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'olanzapine est structurellement similaire à la clozapine et est classée comme thiénobenzodiazépine. L'olanzapine a une affinité importante pour les récepteurs de dopamine et de sérotonine. Elle présente également une forte affinité pour les récepteurs d'histamine et les récepteurs alpha-adrénergiques, ce qui explique ses effets anxiolytiques et sédatifs. Enfin elle présente une affinité plus faible pour les récepteurs muscariniques de l'acétylcholine.
 Le principe d'action de l'olanzapine est inconnu. On suppose que son activité antipsychotique est due, au premier chef, à un antagonisme au niveau des récepteurs de dopamine, précisément les D2. 
-L'antagonisme de la sérotonine peut aussi jouer un rôle dans l'efficience de l'olanzapine, cette idée fait débat parmi la communauté scientifique. Un antagonisme situé au niveau des récepteurs muscariniques, histaminiques et alpha-adrénergiques semble expliquer certains des effets secondaires voire indésirables (side effects) de l'olanzapine, tels que ses aspects anticholinergiques, la tendance au surpoids (diabète iatrogénique ?), la sédation et l'hypotension orthostatique. L'impuissance[2], ainsi que les troubles liées à une hyperprolactinémie (aménorrhée, galactorrhée) font aussi partie des effets secondaires de ce médicament[3],[4].
+L'antagonisme de la sérotonine peut aussi jouer un rôle dans l'efficience de l'olanzapine, cette idée fait débat parmi la communauté scientifique. Un antagonisme situé au niveau des récepteurs muscariniques, histaminiques et alpha-adrénergiques semble expliquer certains des effets secondaires voire indésirables (side effects) de l'olanzapine, tels que ses aspects anticholinergiques, la tendance au surpoids (diabète iatrogénique ?), la sédation et l'hypotension orthostatique. L'impuissance, ainsi que les troubles liées à une hyperprolactinémie (aménorrhée, galactorrhée) font aussi partie des effets secondaires de ce médicament,.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'olanzapine présente une cinétique linéaire. Son élimination a une demi-vie de 21 à 54 heures, soit en moyenne 37 heures et demie ou un peu plus qu'une journée et demie complète [deux heures de plus que trente-six heures (36 h + 1 h 30 min en moyenne toujours)]. Les concentrations en plasma au repos sont atteintes en environ une semaine. L'olanzapine subit le métabolisme de premier ordre et la disponibilité organique n'est pas affectée par la prise alimentaire.
 </t>
@@ -578,10 +594,12 @@
           <t>Pharmacodynamique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propriétés pharmacodynamiquese de perception réversible a été observée chez des patients bipolaires sous olanzapine[5].
-L’olanzapine fait maintenant partie de la quadrithérapie antiémétique des nausées et vomissements chimio-induits (associée à un sétron, à la dexaméthasone, et un inhibiteur de NK1). L’indication est liée aux chimiothérapies hautement émétisantes[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Propriétés pharmacodynamiquese de perception réversible a été observée chez des patients bipolaires sous olanzapine.
+L’olanzapine fait maintenant partie de la quadrithérapie antiémétique des nausées et vomissements chimio-induits (associée à un sétron, à la dexaméthasone, et un inhibiteur de NK1). L’indication est liée aux chimiothérapies hautement émétisantes.
 </t>
         </is>
       </c>
@@ -610,14 +628,12 @@
           <t>Efficacité et balance bénéfice-risque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'olanzapine est considérée comme une molécule possédant un bon rapport bénéfice/risque et possédant une efficacité dans la réduction des symptômes du trouble bipolaire et de la schizophrénie. 
-Elle diminue le risque d'idées suicidaires et de tentatives de suicide mais moins que la clozapine[7]. 
-Commission de la Transparence
-La Commission de la Transparence (HAS, Saint-Denis, France) a évalué son service médical rendu important et une amélioration de service médical rendu important (ASMR = III)[8].
-Prescrire
-La revue Prescrire a évalué que l'olanzapine n'apportait rien de nouveau ni dans les troubles bipolaires[9] ni dans la schizophrénie[10].
+Elle diminue le risque d'idées suicidaires et de tentatives de suicide mais moins que la clozapine. 
 </t>
         </is>
       </c>
@@ -643,12 +659,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Législation</t>
+          <t>Efficacité et balance bénéfice-risque</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Belgique, en Suisse, en France et au Canada, il est délivré exclusivement sur ordonnance.
+          <t>Commission de la Transparence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Commission de la Transparence (HAS, Saint-Denis, France) a évalué son service médical rendu important et une amélioration de service médical rendu important (ASMR = III).
 </t>
         </is>
       </c>
@@ -674,15 +696,125 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Efficacité et balance bénéfice-risque</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prescrire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue Prescrire a évalué que l'olanzapine n'apportait rien de nouveau ni dans les troubles bipolaires ni dans la schizophrénie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olanzapine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olanzapine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Législation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, en Suisse, en France et au Canada, il est délivré exclusivement sur ordonnance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Olanzapine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olanzapine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Faits de sociétés liés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrefaçon
-En Belgique, le 25 mai 2007, une circulaire du SCM (service de contrôle des médicaments)[11] annonçait que l'Agence fédérale des médicaments et des produits de santé (dépendant du SPF Santé) et eux-mêmes avaient été informés par la firme Eli Lilly Benelux de l'identification en Grande-Bretagne de trois lots contrefaits de Zyprexa 10 mg comprimés pelliculés, de présentation française, qui avaient été livrés en Grande-Bretagne à des importateurs parallèles. Les numéros de lot de ces produits contrefaits étaient identiques à des lots mis sur le marché en France par Lilly France[12],[13].
-Controverses judiciaires
-Entre 2005 et 2007, de nombreux procès d'usagers américains sont intentés à la firme Lilly pour le motif d'une information insuffisante liée aux effets secondaires indésirables, notamment au sujet des conséquences sur le métabolisme (obésité, diabète) qui seraient induites par le médicament[14]. Aux États-Unis, la firme a été condamnée à une amende record de 1.4 milliard de dollars pour avoir encouragé la prescription de son produit hors des indications fixées (notamment dans un but de sédation)[15].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Contrefaçon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, le 25 mai 2007, une circulaire du SCM (service de contrôle des médicaments) annonçait que l'Agence fédérale des médicaments et des produits de santé (dépendant du SPF Santé) et eux-mêmes avaient été informés par la firme Eli Lilly Benelux de l'identification en Grande-Bretagne de trois lots contrefaits de Zyprexa 10 mg comprimés pelliculés, de présentation française, qui avaient été livrés en Grande-Bretagne à des importateurs parallèles. Les numéros de lot de ces produits contrefaits étaient identiques à des lots mis sur le marché en France par Lilly France,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olanzapine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olanzapine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Faits de sociétés liés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Controverses judiciaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2005 et 2007, de nombreux procès d'usagers américains sont intentés à la firme Lilly pour le motif d'une information insuffisante liée aux effets secondaires indésirables, notamment au sujet des conséquences sur le métabolisme (obésité, diabète) qui seraient induites par le médicament. Aux États-Unis, la firme a été condamnée à une amende record de 1.4 milliard de dollars pour avoir encouragé la prescription de son produit hors des indications fixées (notamment dans un but de sédation).
 </t>
         </is>
       </c>
